--- a/Matchups/matchupsdeturbidez/matchUps_RdP_VNOAA20_GW94-SWIR13_rhow_visnir_3x3_s3vt.xlsx
+++ b/Matchups/matchupsdeturbidez/matchUps_RdP_VNOAA20_GW94-SWIR13_rhow_visnir_3x3_s3vt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="StationInfo" sheetId="1" state="visible" r:id="rId2"/>
@@ -310,11 +310,11 @@
   </sheetPr>
   <dimension ref="A2:Q8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:H8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.6"/>
@@ -708,11 +708,11 @@
   </sheetPr>
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:H8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.2"/>
@@ -748,11 +748,11 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:H8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -954,13 +954,14 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.91"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,11 +1164,11 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:H8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1369,11 +1370,11 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:H8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1575,11 +1576,11 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:H8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">

--- a/Matchups/matchupsdeturbidez/matchUps_RdP_VNOAA20_GW94-SWIR13_rhow_visnir_3x3_s3vt.xlsx
+++ b/Matchups/matchupsdeturbidez/matchUps_RdP_VNOAA20_GW94-SWIR13_rhow_visnir_3x3_s3vt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StationInfo" sheetId="1" state="visible" r:id="rId2"/>
@@ -310,11 +310,11 @@
   </sheetPr>
   <dimension ref="A2:Q8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.6"/>
@@ -708,11 +708,11 @@
   </sheetPr>
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.2"/>
@@ -748,11 +748,11 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -954,11 +954,11 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.91"/>
@@ -1164,11 +1164,11 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1370,11 +1370,11 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1576,11 +1576,11 @@
   </sheetPr>
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
